--- a/학습자료/단답형/영어_단어_Day12.xlsx
+++ b/학습자료/단답형/영어_단어_Day12.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>전치사</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/영어_단어_Day12.xlsx
+++ b/학습자료/단답형/영어_단어_Day12.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,2793 +446,2793 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>날짜</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>오답가산점</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>구분</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a needle in a haystack</t>
+          <t>bicker</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>건초 더미에서 바늘 찾기, 거의 불가능한 일</t>
+          <t>언쟁하다 / 말다툼하다</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>a pain in the neck</t>
+          <t>a snow job</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>아주 귀찮은 사람[것], 골칫거리</t>
+          <t>그럴듯한 거짓말 / 속이기</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>사람</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>a piece of cake</t>
+          <t>all dancing</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>아주 쉬운 일</t>
+          <t>온갖 첨단 기술이 동원된</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>a pipdream</t>
+          <t>contradict</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>허황된 상상</t>
+          <t>논쟁하다 / 반박하다</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>a poker face</t>
+          <t>consent</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>포커페이스, 무표정한 얼굴</t>
+          <t>의견이 일치하다 / 동의하다</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>a pretty kettle of fish</t>
+          <t>sociable</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>아수라장, 엉망진창</t>
+          <t>외향적인 / 사교적인</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>the real McCoy</t>
+          <t>on the ropes</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>진짜배기</t>
+          <t>궁지에 몰린 / 망하기 직전에</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>a rip-off</t>
+          <t>believe in</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>바가지, 모작, 아류</t>
+          <t>믿다</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>a shot in the dark</t>
+          <t>all in all</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>근거 없는 짐작, 억측</t>
+          <t>대체로 / 모두 합해서 / 통틀어</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>a shutdown</t>
+          <t>refute</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>대결, 마지막 결전</t>
+          <t>논쟁하다 / 반박하다</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>a side effect</t>
+          <t>a smash hit</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>부작용</t>
+          <t>대히트 / 대성공</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
           <t>명사</t>
         </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>a skeleton in the closet</t>
+          <t>add insult to injury</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>집 내부의 사정, 비밀, 숨기고 싶은 수치</t>
+          <t>엎친 데 덮친 격이다</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>a slip of the tongue</t>
+          <t>dispute</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>말실수</t>
+          <t>논쟁하다 / 반박하다</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>a smash hit</t>
+          <t>all out</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>대히트, 대성공</t>
+          <t>사력을 다하여 / 전력으로</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>a smoke screen</t>
+          <t>mandatory</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>연막</t>
+          <t>의무적인 / 강제적인</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>a snow job</t>
+          <t>segment</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>그럴듯한 거짓말, 속이기</t>
+          <t>나누다 / 가르다</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>a spitting image</t>
+          <t>count on</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>판박이처럼 닮은 것</t>
+          <t>믿다</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>a steal</t>
+          <t>outgoing</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>횡재한 것, 거의 헐값에 얻은 것</t>
+          <t>외향적인 / 사교적인</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>a turkey shoot</t>
+          <t>all eyes</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>상대가 안 되는 싸움, 식은 죽 먹기</t>
+          <t>주목하는</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>a walk of life</t>
+          <t>have faith in</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>계층, 지위</t>
+          <t>믿다</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>a wet blanket</t>
+          <t>spare</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>분위기를 깨는 사람</t>
+          <t>여분의</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>사람</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>a white elephant</t>
+          <t>split</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>성가신 것, 골치 아픈 것, 애물단지</t>
+          <t>나누다 / 가르다</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>a wild card</t>
+          <t>abstain from (= refrain from)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>만능의 패, 예측할 수 없는 사람[일]</t>
+          <t>~을 삼가다</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>a windfall profit</t>
+          <t>accept something at face value</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>우발적인 이익, 불로소득</t>
+          <t>~을 액면 그대로 받아들이다</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>abide by (= keep = be faithful to)</t>
+          <t>a shutdown</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>~을 따르다, 지키다, 준수하다</t>
+          <t>대결 / 마지막 결전</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>above all (things) (=more than anything else)</t>
+          <t>debate</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>무엇보다도</t>
+          <t>논쟁하다 / 반박하다</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>aboveboard (above board)</t>
+          <t>keep clear of</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>정정당당한[하게]</t>
+          <t>가까이 하지 않다 / 떨어져 있다</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>abstain from (= refrain from)</t>
+          <t>a windfall profit</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>~을 삼가다</t>
+          <t>우발적인 이익 / 불로소득</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>accept something at face value</t>
+          <t>a shot in the dark</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>~을 액면 그대로 받아들이다</t>
+          <t>근거 없는 짐작 / 억측</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>according as + 절 (according to + 명사)</t>
+          <t>redundant</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~에 따라서[따르면]</t>
+          <t>여분의</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>a prelude to</t>
+          <t>coercive</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>~의 서막</t>
+          <t>의무적인 / 강제적인</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>account for</t>
+          <t>a needle in a haystack</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>설명하다</t>
+          <t>건초 더미에서 바늘 찾기 / 거의 불가능한 일</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ace in the hole</t>
+          <t>be far away</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>비장의 술수</t>
+          <t>가까이 하지 않다 / 떨어져 있다</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Achilles' heel</t>
+          <t>all walks of life</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>아킬레스건, 치명적인 약점</t>
+          <t>각계각층</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
           <t>명사</t>
         </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>aquiesce to</t>
+          <t>a side effect</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>~에 동의하다, 묵인하다</t>
+          <t>부작용</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>across the board</t>
+          <t>a wet blanket</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>전체적으로, 전반적으로</t>
+          <t>분위기를 깨는 사람</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>사람</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>act one's age</t>
+          <t>Achilles' heel</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>나잇값을 하다, 나이에 걸맞는 행동을 하다</t>
+          <t>아킬레스건 / 치명적인 약점</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>add insult to injury</t>
+          <t>rely on</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>엎친 데 덮친 격이다</t>
+          <t>믿다</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>adhere to</t>
+          <t>approve</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>~을 고수하다, 들러붙다</t>
+          <t>의견이 일치하다 / 동의하다</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>after all (= in spite off = in the end)</t>
+          <t>superfluous</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>결국, ~에도 불구하고</t>
+          <t>여분의</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>전치사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>again and again (= repeatedly)</t>
+          <t>gregarious</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>반복해서</t>
+          <t>외향적인 / 사교적인</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>against all odds</t>
+          <t>adhere to</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>역경을 헤쳐</t>
+          <t>~을 고수하다 / 들러붙다</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>on the ropes</t>
+          <t>a walk of life</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>궁지에 몰린, 망하기 직전에</t>
+          <t>계층 / 지위</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>agree to something</t>
+          <t>a steal</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>~을 찬성하다, 승낙하다</t>
+          <t>횡재한 것 / 거의 헐값에 얻은 것</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>agree with somebody/something</t>
+          <t>all-around</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>~에게 동의하다, ~에 동의하다</t>
+          <t>만능의</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>take a fancy(= be fond of = take a linking to[for])</t>
+          <t>altercate</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>~을 좋아하다</t>
+          <t>언쟁하다 / 말다툼하다</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>all along</t>
+          <t>a white elephant</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>줄곧, 내내</t>
+          <t>성가신 것 / 골치 아픈 것 / 애물단지</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>all-around</t>
+          <t>a prelude to</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>만능의</t>
+          <t>~의 서막</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>all at once(= suddenly = on a sudden)</t>
+          <t>contemptuous</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>갑자기</t>
+          <t>경멸적인 / 경멸하는</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>all at sea</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>어찌할 바를 모르는, 어리둥절한</t>
+          <t>여분의</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
           <t>형용사</t>
         </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>all but (= almost)</t>
+          <t>contend</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>거의</t>
+          <t>논쟁하다 / 반박하다</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>all eyes</t>
+          <t>after all (= in spite off = in the end)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>주목하는</t>
+          <t>결국 / ~에도 불구하고</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>전치사</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>all in all</t>
+          <t>above all (things) (=more than anything else)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>대체로, 모두 합해서, 통틀어</t>
+          <t>무엇보다도</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>all nerves</t>
+          <t>all at sea</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>신경이 예민한</t>
+          <t>어찌할 바를 모르는 / 어리둥절한</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
           <t>형용사</t>
         </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>all out</t>
+          <t>agree with somebody /something</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>사력을 다하여, 전력으로</t>
+          <t>~에게 동의하다 / ~에 동의하다</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>all the same</t>
+          <t>all along</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>똑같은, 그래도, 여전히, 그럼에도 불구하고</t>
+          <t>줄곧 / 내내</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
           <t>부사</t>
         </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>(be) all thumbs</t>
+          <t>all at once(= suddenly = on a sudden)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>익숙하지 못한, 손재주가 없는</t>
+          <t>갑자기</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>all walks of life</t>
+          <t>a piece of cake</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>각계각층</t>
+          <t>아주 쉬운 일</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
           <t>명사</t>
         </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>all-singing</t>
+          <t>(be) all thumbs</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>온갖 첨단 기술이 동원된</t>
+          <t>익숙하지 못한 / 손재주가 없는</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
           <t>형용사</t>
         </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>all dancing</t>
+          <t>disdainful</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>온갖 첨단 기술이 동원된</t>
+          <t>경멸적인 / 경멸하는</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
           <t>형용사</t>
         </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>have faith in</t>
+          <t>a skeleton in the closet</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>믿다</t>
+          <t>집 내부의 사정 / 비밀 / 숨기고 싶은 수치</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>believe in</t>
+          <t>against all odds</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>믿다</t>
+          <t>역경을 헤쳐</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>rely on</t>
+          <t>all nerves</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>믿다</t>
+          <t>신경이 예민한</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>count on</t>
+          <t>pejorative</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>믿다</t>
+          <t>경멸적인 / 경멸하는</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>give credit to</t>
+          <t>surplus</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>믿다</t>
+          <t>여분의</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>keep away from</t>
+          <t>all but (= almost)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>가까이 하지 않다, 떨어져 있다</t>
+          <t>거의</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>keep clear of</t>
+          <t>all the same</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>가까이 하지 않다, 떨어져 있다</t>
+          <t>똑같은 / 그래도 / 여전히 / 그럼에도 불구하고</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>stand away</t>
+          <t>a smoke screen</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>가까이 하지 않다, 떨어져 있다</t>
+          <t>연막</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>be far away</t>
+          <t>argue</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>가까이 하지 않다, 떨어져 있다</t>
+          <t>언쟁하다 / 말다툼하다</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>be apart from</t>
+          <t>the real McCoy</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>가까이 하지 않다, 떨어져 있다</t>
+          <t>진짜배기</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>see eye to eye</t>
+          <t>a wild card</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>의견이 일치하다, 동의하다</t>
+          <t>만능의 패 / 예측할 수 없는 사람[일]</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>agree</t>
+          <t>see eye to eye</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>의견이 일치하다, 동의하다</t>
+          <t>의견이 일치하다 / 동의하다</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>a rip-off</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>의견이 일치하다, 동의하다</t>
+          <t>바가지 / 모작 / 아류</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>concur</t>
+          <t>agree</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>의견이 일치하다, 동의하다</t>
+          <t>의견이 일치하다 / 동의하다</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>consent</t>
+          <t>a pain in the neck</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>의견이 일치하다, 동의하다</t>
+          <t>아주 귀찮은 사람[것] / 골칫거리</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>사람</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>quarrel</t>
+          <t>account for</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>언쟁하다, 말다툼하다</t>
+          <t>설명하다</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>argue</t>
+          <t>all-singing</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>언쟁하다, 말다툼하다</t>
+          <t>온갖 첨단 기술이 동원된</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>altercate</t>
+          <t>ace in the hole</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>언쟁하다, 말다툼하다</t>
+          <t>비장의 술수</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>wrangle</t>
+          <t>aboveboard (above board)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>언쟁하다, 말다툼하다</t>
+          <t>정정당당한[하게]</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>bicker</t>
+          <t>quarrel</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>언쟁하다, 말다툼하다</t>
+          <t>언쟁하다 / 말다툼하다</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>dispute</t>
+          <t>across the board</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>논쟁하다, 반박하다</t>
+          <t>전체적으로 / 전반적으로</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>debate</t>
+          <t>a slip of the tongue</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>논쟁하다, 반박하다</t>
+          <t>말실수</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>contend</t>
+          <t>stand away</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>논쟁하다, 반박하다</t>
+          <t>가까이 하지 않다 / 떨어져 있다</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>controvert</t>
+          <t>a poker face</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>논쟁하다, 반박하다</t>
+          <t>포커페이스 / 무표정한 얼굴</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>contradict</t>
+          <t>a turkey shoot</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>논쟁하다, 반박하다</t>
+          <t>상대가 안 되는 싸움 / 식은 죽 먹기</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>rebut</t>
+          <t>forcible</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>논쟁하다, 반박하다</t>
+          <t>의무적인 / 강제적인</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>refute</t>
+          <t>divide</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>논쟁하다, 반박하다</t>
+          <t>나누다 / 가르다</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>a spitting image</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>나누다, 가르다</t>
+          <t>판박이처럼 닮은 것</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>divide</t>
+          <t>obligatory</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>나누다, 가르다</t>
+          <t>의무적인 / 강제적인</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>split</t>
+          <t>scornful</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>나누다, 가르다</t>
+          <t>경멸적인 / 경멸하는</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>separate</t>
+          <t>concur</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>나누다, 가르다</t>
+          <t>의견이 일치하다 / 동의하다</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>segment</t>
+          <t>a pretty kettle of fish</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>나누다, 가르다</t>
+          <t>아수라장 / 엉망진창</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>pejorative</t>
+          <t>compulsory</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>경멸적인, 경멸하는</t>
+          <t>의무적인 / 강제적인</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
           <t>형용사</t>
         </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>derogatory</t>
+          <t>a pipdream</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>경멸적인, 경멸하는</t>
+          <t>허황된 상상</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>scornful</t>
+          <t>keep away from</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>경멸적인, 경멸하는</t>
+          <t>가까이 하지 않다 / 떨어져 있다</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>disdainful</t>
+          <t>separate</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>경멸적인, 경멸하는</t>
+          <t>나누다 / 가르다</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>contemptuous</t>
+          <t>wrangle</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>경멸적인, 경멸하는</t>
+          <t>언쟁하다 / 말다툼하다</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>extrovert</t>
+          <t>act one's age</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>외향적인, 사교적인</t>
+          <t>나잇값을 하다 / 나이에 걸맞는 행동을 하다</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>outgoing</t>
+          <t>take a fancy(= be fond of = take a linking to[for])</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>외향적인, 사교적인</t>
+          <t>~을 좋아하다</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>sociable</t>
+          <t>according as + 절 (according to + 명사)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>외향적인, 사교적인</t>
+          <t>~에 따라서[따르면]</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>gregarious</t>
+          <t>abide by (= keep = be faithful to)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>외향적인, 사교적인</t>
+          <t>~을 따르다 / 지키다 / 준수하다</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>mandatory</t>
+          <t>again and again (= repeatedly)</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>의무적인, 강제적인</t>
+          <t>반복해서</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>obligatory</t>
+          <t>be apart from</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>의무적인, 강제적인</t>
+          <t>가까이 하지 않다 / 떨어져 있다</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>compulsory</t>
+          <t>rebut</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>의무적인, 강제적인</t>
+          <t>논쟁하다 / 반박하다</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>forcible</t>
+          <t>part</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>의무적인, 강제적인</t>
+          <t>나누다 / 가르다</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>coercive</t>
+          <t>controvert</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>의무적인, 강제적인</t>
+          <t>논쟁하다 / 반박하다</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>redundant</t>
+          <t>aquiesce to</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>여분의</t>
+          <t>~에 동의하다 / 묵인하다</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>spare</t>
+          <t>agree to something</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>여분의</t>
+          <t>~을 찬성하다 / 승낙하다</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>extrovert</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>여분의</t>
+          <t>외향적인 / 사교적인</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
           <t>형용사</t>
         </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>surplus</t>
+          <t>give credit to</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>여분의</t>
+          <t>믿다</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>superfluous</t>
+          <t>derogatory</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>여분의</t>
+          <t>경멸적인 / 경멸하는</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Day12</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
           <t>형용사</t>
         </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
